--- a/Hotcard Ticket.xlsx
+++ b/Hotcard Ticket.xlsx
@@ -815,7 +815,11 @@
           <t>bins</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">

--- a/Hotcard Ticket.xlsx
+++ b/Hotcard Ticket.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,790 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zip code</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>600117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>phone #</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9911991100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>project coordinator</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>certification required (yes or no)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>certification coordinator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fi primary contact name</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fi primary contact phone</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fi primary contact email</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>core processor</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>core contact name</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>core contact email</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>third party vendor name</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>third party vendor email</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>third party vendor phone</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ig group name (if applicable)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>league contact</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>client relationship manager</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>application access analyst</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>deconversion analyst</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>settlement analyst</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>instant issue (yes or no)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>instant issue vendor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>wizproc (if applicable)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>central card issue vendor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>routing #/institution id</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>current pseudo routing # (if applicable)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>new switch</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A7X</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>proc id / processor name</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>shared proc/core</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>stand-in proc (*horizon only*)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fi id (only valid for norcross)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>bins</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>bin length</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>aims id</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>limit group</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>entity name (dn)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fx id</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>fxid for core vendor (if applicable)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cvv expiration date format</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>acro/ibm id</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cutoff time</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18:00 CT *</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>send advice</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vru activation options</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>card activation line (domestic)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>855.485.7039</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>card activation line (international)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501.725.9278 (Collect)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lost stolen after hours (hotcarding)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>800.500.1044</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>tsap ip address</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>tsap port</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>tsap device/circuit id</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>tsap pi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>tsap ch</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>tsap tandem-port</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>batch transfer (zipped/unzipped)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>batch transfer (text/html)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>apb4 (yes or no)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pbf (yes or no)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>online maintenance/382 messages</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>lotus notes unique id - batch maintenance (apb4)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lotus notes unique id - balance refresh file (pbf)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>posting file format 28 or iso user file</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>issuing networks</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>acquiring networks</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>scorecard/loyalty (yes or no)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>scorecard program id</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>scorecard agent id</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>scorecard corp id</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>scorecard association id</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>securlock products</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>fraud contact group email (client)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3d secure (yes or no)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>arb (yes or no)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>fasttrack (yes or no)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mobile banking (yes or no)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>debit, credit or both</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>card types</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>card count (active)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>planview id</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>creq#</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
